--- a/datamining/final_data/sorted1988_nltk.xlsx
+++ b/datamining/final_data/sorted1988_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJW2"/>
+  <dimension ref="A1:AIA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>students</t>
@@ -492,7 +492,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -502,14 +502,14 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>high</t>
@@ -517,147 +517,147 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>precocity</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>education</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>precocity</t>
+          <t>families</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>disabled</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>young</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>sisk</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>cognitive</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>pennsylvania</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>supreme-court</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>group</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>reflections</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>manuscripts</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>early</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -667,264 +667,264 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>sisk</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>supreme-court</t>
+          <t>results</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>less</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>reflections</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>manuscripts</t>
+          <t>te</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>save</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>associations</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>general</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>associations</t>
+          <t>ga</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>save</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>sb</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>rimm</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>social</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>well</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>davis</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>potpourri</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>gifted-child-quarterly</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>legal</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>ga</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>rimm</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>good</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>adderholdtelliott</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>whats</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>perfectionism</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>rj</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>edition</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>gallagher</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>jj</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>productivity</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>nagc</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>ezzo</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>audrey</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
           <t>davidson</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>rj</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>je</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>jj</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>conceptions</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>gallagher</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>edition</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>productivity</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>audrey</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>ezzo</t>
-        </is>
-      </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>sternberg</t>
@@ -937,1807 +937,1807 @@
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>may</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child-quarterly</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>legal</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>potpourri</t>
+          <t>way</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
           <t>self</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>publishing</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>perceived</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
-      </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>competence</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
           <t>physical</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>stein</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>young-people</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>rdim</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>enrichment</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>curricular</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>achievers</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>interviews</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>achievers</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>older</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>findings</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>publishing</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>systems</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>stressor</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>mi</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>stein</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>three</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>young-people</t>
+          <t>psychopathology</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>quotients</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>also</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>psychopathology</t>
+          <t>stable</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>quotients</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>using</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>others</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>article</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>several</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>development</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>student</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
           <t>provide</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>average</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>perfectionism</t>
+          <t>six</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>too</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>whats</t>
+          <t>model</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>adderholdtelliott</t>
+          <t>working</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>views</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>mathematically</t>
+          <t>home</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>although</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>second</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>able</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>college</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>best</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>art</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>number</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>views</t>
+          <t>information</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>first</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>state</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>key</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>child</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>encourage</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>content</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>data</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>age</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>menus</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>included</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>must</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>encourage</t>
+          <t>self-worth</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>menus</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>30</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>change</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>esteem</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>correlates</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>different</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>status</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>antecedents</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>closely</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>parenting</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>national</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>self-worth</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>antecedents</t>
+          <t>various</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>cbcl</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>correlates</t>
+          <t>cbcl-trf</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>become</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>used</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>esteem</t>
+          <t>youths</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>12</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>process</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>cbcl-trf</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>cbcl</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>read</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>present</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>similarities</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>delphi</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>discriminant</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>ability/ld</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>order</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>delphi</t>
+          <t>background</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>13</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>interacting</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>tenets</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>special</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>play</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>youths</t>
+          <t>making</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>level</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>ability/ld</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>10</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>similarities</t>
+          <t>learning-disabled</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>discriminant</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>principles</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>approaches</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>across</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>prospective</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>tenets</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>required</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>door</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
           <t>ages</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>revolving</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>agemates</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>new</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>learning-disabled</t>
+          <t>membership</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>university</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>approaches</t>
+          <t>appeared</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>graduates</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>entrants</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>interacting</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>principles</t>
+          <t>advocacy</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>prospective</t>
+          <t>males</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>isolate</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>values</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>ingredients</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>exemplary</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>active</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>revolving</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>isolate</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>help</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>agemates</t>
+          <t>look</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>comparable</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>tips</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>advocacy</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>exemplary</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>one</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>membership</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>subscale</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>facilitating</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>graduates</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>entrants</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>made</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>home-environment</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>enviroment</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>feelings</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>facilitating</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>63</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>home-environment</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>agreement</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>tips</t>
+          <t>expressiveness</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>enviroment</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>agreement</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>administered</t>
+          <t>states</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>observations</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>45</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>dysfunctional</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>services</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>subscale</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>functionality</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>support</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>comparable</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>expressiveness</t>
+          <t>least</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>led</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>objectives</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>five</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>material</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>social-emotional</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>succesfully</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>artists</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>led</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>categories</t>
+          <t>bruner</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>dysfunctional</t>
+          <t>handle</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>decisions</t>
+          <t>17</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>applying</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>actualizing</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>around</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>functionality</t>
+          <t>position</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>adolescent</t>
+          <t>public</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>dealing</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>independence</t>
+          <t>gifted/talented</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>chronologically</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>bloom</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>schooling</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>defending</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>critically</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>coping</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>chetelat</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>csikszentmihalyi</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>popular</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>under-achievers</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
           <t>overview</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>actualizing</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>affective</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>applying</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>peng</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>females</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>zimmerman</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>interviewed</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>institute</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>guskin</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>same-age</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>bruner</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>around</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>under-achievers</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>coping</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>critically</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>popular</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>taylor</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>getzels</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>okolo</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>focused</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>handle</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/talented</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>defending</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>recognition</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>chronologically</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>social-emotional</t>
-        </is>
-      </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>succesfully</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>dealing</t>
+          <t>encouragement</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
+          <t>familiarity</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>replicated</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
           <t>interacted</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>artistically</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>iu</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>okolo</t>
-        </is>
-      </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>zimmerman</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2½</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>living</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>guskin</t>
+          <t>nine-month</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>peng</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>chetelat</t>
+          <t>evaluates</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>gains</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>gifted/learning</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>csikszentmihalyi</t>
+          <t>given</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>called</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>encouragement</t>
+          <t>hours</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>familiarity</t>
+          <t>professionals</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>met</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>getzels</t>
+          <t>frequently</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>youngsters</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>institute</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>period</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
@@ -2747,2482 +2747,2242 @@
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>week</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>taylor</t>
+          <t>self-esteem</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>bloom</t>
+          <t>upper</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>competent</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>replicated</t>
+          <t>extension</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>schooling</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>twenty</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>self-perceptions</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>segregated</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>interviewed</t>
+          <t>observed</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>relevant</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>evaluates</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>smpys</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>reside</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>remarkable</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>much</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>292</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>segregated</t>
+          <t>verbally</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>vastly</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>upper</t>
+          <t>per</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>self-perceptions</t>
+          <t>united</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>2½</t>
+          <t>tends</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>statistics</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>sat-m</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>gains</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>gifted/learning</t>
+          <t>700-800</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>nine-month</t>
+          <t>reobrt</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>youngsters</t>
+          <t>ratio</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>self-esteem</t>
+          <t>checklist-teacher</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>professionals</t>
+          <t>clinical</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>hours</t>
+          <t>71</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>form</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>functioning</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>competent</t>
+          <t>29</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>extension</t>
+          <t>incidence</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>shown</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
+          <t>normative</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>countries</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>educated</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>foreign</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>decline</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>except</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>formerly</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>tapped</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>penmanship/neatness</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>initially</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>girl</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>occasions</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>noted</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>mainstream</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>held</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>quite</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>consistency</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
           <t>young-women</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>rapidly</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>communicated</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>characteristic</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>applicable</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>amounts</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
         <is>
           <t>women</t>
         </is>
       </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>administration</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>childrens</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>color-discrimination</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>comparing</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>considerably</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>faster</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>physiological</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>reasonable</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>dependence</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>described</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>dramatic</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>extreme</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>helpful</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>home-work</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>confer</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>induced</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>adulthood</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>stressors</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>centrality</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>counseling</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>instrumental</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>instrumentality</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>occupational</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>recovery</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>socio-affective</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>sophomore</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
         <is>
           <t>traits</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>sophomore</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>socio-affective</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>held</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>tapped</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>only</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>checklist-teacher</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>clinical</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>functioning</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>incidence</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>normative</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>penmanship/neatness</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>reobrt</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>decline</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>except</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>formerly</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>mainstream</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>noted</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>occasions</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>occupational</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>administration</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>applicable</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>reasonable</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>appear</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>amounts</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>characteristic</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>communicated</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>confer</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>consistency</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>dependence</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>home-work</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>described</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>dramatic</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>eminent</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>extreme</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>helpful</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>faster</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>skin</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>color-discrimination</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>considerably</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>induced</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>physiological</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>prone</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>rapidly</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>react</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
+      <c r="VZ1" s="1" t="inlineStr">
         <is>
           <t>recover</t>
         </is>
       </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>recovery</t>
-        </is>
-      </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>stressors</t>
+          <t>108</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>childrens</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>comparing</t>
+          <t>unidimensional</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>regard</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>instrumentality</t>
+          <t>resutts</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>instrumental</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>11</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>centrality</t>
+          <t>36</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>adulthood</t>
+          <t>administrators</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>compare</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>quite</t>
+          <t>distinguish</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>distinguishable</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>per</t>
+          <t>open-ended</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
+          <t>enjoyable</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>eighty-four</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>reading-ability</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>subnormal</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>readers</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>subskills</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>hundred</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>mutually</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>moderately</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>makers</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>infants</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>statistics</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>remarkable</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>reside</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>sat-m</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>smpys</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>infants</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>tends</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>verbally</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>enjoyable</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>girl</t>
-        </is>
-      </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>subnormal</t>
+          <t>expected</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
-          <t>makers</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="XK1" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>widely</t>
         </is>
       </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>moderately</t>
+          <t>.intelligent</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>mutually</t>
+          <t>existed</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>natural</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>function</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>reading-ability</t>
+          <t>his/her</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>interspersed</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>obtaining</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>opportunities</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>panel</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>permit</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>reached</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>reliable</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>respondents</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>statements</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>goat</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
           <t>reviewed</t>
         </is>
       </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>skill</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>subskills</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>educated</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>vary</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>expect</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>before</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>concerning</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>countries</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>700-800</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>vastly</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>.intelligent</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>his/her</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>resutts</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>interspersed</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>leaders</t>
-        </is>
-      </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>obtaining</t>
+          <t>establish</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>opinion</t>
+          <t>feedback</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
-          <t>panel</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="YS1" s="1" t="inlineStr">
         <is>
-          <t>permit</t>
+          <t>controlled</t>
         </is>
       </c>
       <c r="YT1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>consisting</t>
         </is>
       </c>
       <c r="YU1" s="1" t="inlineStr">
         <is>
-          <t>questionnaires</t>
+          <t>consideration</t>
         </is>
       </c>
       <c r="YV1" s="1" t="inlineStr">
         <is>
-          <t>reached</t>
+          <t>capable</t>
         </is>
       </c>
       <c r="YW1" s="1" t="inlineStr">
         <is>
-          <t>reliable</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="YX1" s="1" t="inlineStr">
         <is>
-          <t>respondents</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="YY1" s="1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>nondisabled</t>
         </is>
       </c>
       <c r="YZ1" s="1" t="inlineStr">
         <is>
-          <t>sought</t>
+          <t>motivational</t>
         </is>
       </c>
       <c r="ZA1" s="1" t="inlineStr">
         <is>
-          <t>statements</t>
+          <t>might</t>
         </is>
       </c>
       <c r="ZB1" s="1" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>ld/average</t>
         </is>
       </c>
       <c r="ZC1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="ZD1" s="1" t="inlineStr">
         <is>
-          <t>strongly</t>
+          <t>hundred-twelve</t>
         </is>
       </c>
       <c r="ZE1" s="1" t="inlineStr">
         <is>
-          <t>unidimensional</t>
+          <t>enhances</t>
         </is>
       </c>
       <c r="ZF1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="ZG1" s="1" t="inlineStr">
         <is>
-          <t>goat</t>
+          <t>gardner</t>
         </is>
       </c>
       <c r="ZH1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>judgments</t>
         </is>
       </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>investigations</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>eighty-four</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>beliefs</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>intelligences</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>clustering</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>stringent</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>day-to-day</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>capable</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>open-ended</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>consideration</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>consisting</t>
+          <t>developmental-study</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>upperclasspersons</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>social-relations</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>regard</t>
+          <t>striking</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>enhances</t>
+          <t>top</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>establish</t>
+          <t>supplied</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>thereafter</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>times</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>together</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>initially</t>
+          <t>topics</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>text</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>greatest</t>
+          <t>use</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>analytic</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>''</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>distinguish</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>distinguishable</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
-          <t>existed</t>
+          <t>``</t>
         </is>
       </c>
       <c r="AAQ1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>agree</t>
         </is>
       </c>
       <c r="AAR1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="AAS1" s="1" t="inlineStr">
         <is>
-          <t>hundred-twelve</t>
+          <t>kinds</t>
         </is>
       </c>
       <c r="AAT1" s="1" t="inlineStr">
         <is>
-          <t>nondisabled</t>
+          <t>facilities</t>
         </is>
       </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>motivational</t>
+          <t>motor</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>dynamic</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>ld/average</t>
+          <t>nearby</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>math</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>labeled</t>
         </is>
       </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>independent</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
+          <t>identify</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>shared</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>multidimensional</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>award</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>analyzing</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>administrative</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>problem-centered</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>recruiting</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>secrets</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>relate</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>relatedness</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>research-oriented</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>resemblance</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>resemble</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>scaling</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>skitts</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>sorting</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>tended</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>verbal</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>sixty-three</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>predictors</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>sensitive</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>seventh</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>capability</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>weaknesses</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>insight</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>regards</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
           <t>project</t>
         </is>
       </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>classrooms</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>clustering</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>day-to-day</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>near-by</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>drawn</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>elaborates</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>emphasize</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>engaged</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>exploration</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
         <is>
           <t>take</t>
         </is>
       </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>gardner</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>graduate</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>intelligences</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>investigation</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>investigations</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>judgments</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>secrets</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>agree</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>striking</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>supplied</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>thereafter</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>times</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>topics</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>stringent</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>upperclasspersons</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>younger</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>kinds</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>resemble</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>multidimensional</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>labeled</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>facilities</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>dynamic</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>courses</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>computer</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>award</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>analyzing</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>administrative</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>nearby</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>scaling</t>
+          <t>govern</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>research-oriented</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>recruiting</t>
+          <t>predate</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>relate</t>
+          <t>universities</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>relatedness</t>
+          <t>next</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>problem-centered</t>
+          <t>mind</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>resemblance</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>sixty-three</t>
+          <t>interact</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>similarity</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>skitts</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>sorting</t>
+          <t>friendships</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>tended</t>
+          <t>enter</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>winning</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>equivalent</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>established</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>social-relations</t>
+          <t>existing</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>shared</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>fulfilling</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>cross-sectional</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>well-developed</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>insight</t>
+          <t>however</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>sensitive</t>
+          <t>intimacy</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>emphasize</t>
+          <t>invested</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>elaborates</t>
+          <t>investment</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>drawn</t>
+          <t>viable</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>pronouncedly</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>proportions</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>weaknesses</t>
+          <t>improved</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>kept</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>capability</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>increased</t>
+          <t>base</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>iii</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>improved</t>
+          <t>eighth</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>district</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>govern</t>
+          <t>career</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>already</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>near-by</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>breadth</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>classmates</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>received</t>
+          <t>conference</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>predictors</t>
+          <t>exception</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>conferences</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>consists</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>outside</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>predate</t>
+          <t>distribute</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>interact</t>
+          <t>dues</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>regards</t>
+          <t>emphasis</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>g/t</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>formed</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>staffing</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>kept</t>
+          <t>gather</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>seventh</t>
+          <t>print</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>eighth</t>
+          <t>volunteers</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>engaged</t>
+          <t>togefher</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>established</t>
+          <t>state-wide</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>break-out</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>winning</t>
+          <t>speakers</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>breadth</t>
+          <t>sessions</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>ranges</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>classmates</t>
+          <t>publish</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>well-developed</t>
+          <t>parent/educator</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>cross-sectional</t>
+          <t>holds</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>developmental-study</t>
+          <t>organized</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>enter</t>
+          <t>numerous</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>newsletter</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>viable</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>equivalent</t>
+          <t>mostly</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>existing</t>
+          <t>managed</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>keynote</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>increasing</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>friendship</t>
+          <t>in-service</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>friendships</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>fulfilling</t>
+          <t>respective</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>universities</t>
+          <t>awards</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>intimacy</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>invested</t>
+          <t>guides</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>investment</t>
+          <t>available</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>pronouncedly</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>proportions</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>developers</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>insure</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>combining</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>ranges</t>
+          <t>authentic</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>newsletter</t>
+          <t>assist</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>numerous</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>organized</t>
+          <t>agreed</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>parent/educator</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>print</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>conferences</t>
+          <t>lesson</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>publish</t>
+          <t>synthesize</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>emphasis</t>
+          <t>association</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>speakers</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>staffing</t>
+          <t>modification</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>state-wide</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>conference</t>
+          <t>witnessed</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>set</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>sessions</t>
+          <t>sequences</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>mostly</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>managed</t>
+          <t>seesaw</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>keynote</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>consists</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>continued</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>distribute</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>dues</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>in-service</t>
+          <t>satisfied</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>holds</t>
+          <t>orientation</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>gather</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>g/t</t>
+          <t>male</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>formed</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>exception</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>excellence</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>awards</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>break-out</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>consistent</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>developers</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>seesaw</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>guides</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>insure</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>lesson</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>respective</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>modification</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>selected</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>volunteers</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>combining</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>togefher</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>witnessed</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>techniques</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>synthesize</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>agreed</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>artistic</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>authentic</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>balance</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>conflict</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
           <t>expressed</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>basis</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>satisfied</t>
         </is>
       </c>
     </row>
@@ -5237,130 +4997,130 @@
         <v>1988</v>
       </c>
       <c r="D2" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="E2" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="F2" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="H2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I2" t="n">
         <v>1.17</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.06</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.9599999999999999</v>
       </c>
       <c r="O2" t="n">
+        <v>0.9599999999999999</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.9400000000000002</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.9300000000000002</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.92</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8100000000000002</v>
       </c>
       <c r="T2" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W2" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="X2" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6900000000000002</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AB2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.6699999999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.6600000000000001</v>
       </c>
       <c r="AE2" t="n">
         <v>0.66</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.66</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.64</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.62</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO2" t="n">
         <v>0.58</v>
       </c>
       <c r="AP2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AS2" t="n">
         <v>0.57</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5600000000000001</v>
@@ -5369,10 +5129,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AX2" t="n">
         <v>0.55</v>
@@ -5381,40 +5141,40 @@
         <v>0.55</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="BL2" t="n">
         <v>0.47</v>
@@ -5426,10 +5186,10 @@
         <v>0.47</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.46</v>
@@ -5444,37 +5204,37 @@
         <v>0.46</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="CF2" t="n">
         <v>0.43</v>
@@ -5546,19 +5306,19 @@
         <v>0.42</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="DE2" t="n">
         <v>0.41</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="DH2" t="n">
         <v>0.4</v>
@@ -5570,55 +5330,55 @@
         <v>0.4</v>
       </c>
       <c r="DK2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DS2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DT2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DU2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DV2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DW2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DX2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="DY2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DZ2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EA2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.37</v>
       </c>
       <c r="EB2" t="n">
         <v>0.37</v>
@@ -5633,61 +5393,61 @@
         <v>0.37</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EP2" t="n">
         <v>0.35</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EU2" t="n">
         <v>0.34</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EY2" t="n">
         <v>0.33</v>
@@ -5705,145 +5465,145 @@
         <v>0.33</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.33</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GY2" t="n">
         <v>0.27</v>
@@ -5852,163 +5612,163 @@
         <v>0.27</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="II2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JB2" t="n">
         <v>0.22</v>
@@ -6032,94 +5792,94 @@
         <v>0.22</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JU2" t="n">
         <v>0.21</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KM2" t="n">
         <v>0.2</v>
@@ -6143,124 +5903,124 @@
         <v>0.2</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LN2" t="n">
         <v>0.19</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MH2" t="n">
         <v>0.18</v>
@@ -6290,151 +6050,151 @@
         <v>0.18</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="ON2" t="n">
         <v>0.15</v>
@@ -6542,10 +6302,10 @@
         <v>0.15</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="PY2" t="n">
         <v>0.14</v>
@@ -6626,127 +6386,127 @@
         <v>0.14</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SN2" t="n">
         <v>0.12</v>
@@ -7025,37 +6785,37 @@
         <v>0.12</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WM2" t="n">
         <v>0.11</v>
@@ -7271,139 +7031,139 @@
         <v>0.11</v>
       </c>
       <c r="ZF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAY2" t="n">
         <v>0.1</v>
@@ -7727,148 +7487,148 @@
         <v>0.1</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGX2" t="n">
         <v>0.09</v>
@@ -7937,171 +7697,27 @@
         <v>0.09</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AID2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AII2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIX2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AIZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJW2" t="n">
         <v>0.08</v>
       </c>
     </row>
